--- a/biology/Histoire de la zoologie et de la botanique/Naturalistes_sur_timbres/Naturalistes_sur_timbres.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Naturalistes_sur_timbres/Naturalistes_sur_timbres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux naturalistes, botanistes et zoologistes apparaissent en philatélie.
 </t>
@@ -513,57 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B
-Alfred Edmund Brehm (1829-1884)
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Alfred Edmund Brehm (1829-1884)
 Émission de 1989 de la République démocratique allemande, bloc commémorant les deux Brehms.
 Christian Ludwig Brehm (1787-1864)
-Émission de 1989 de la République démocratique allemande, bloc commémorant les deux Brehms.
-C
- Adelbert von Chamisso (1781-1838)
-Émission de 1981 de la République démocratique allemande, série commémorant des personnalités allemandes.
- Georges Cuvier (1769-1832)
-Émission de 1969 de la France, série commémorant des personnalités françaises.
-D
- Charles Darwin (1809-1882)
-Émission de 1958 de la République démocratique allemande (conjointe avec un timbre sur Linné, voir ce nom).
-F
-Jean-Henri Fabre (1823-1915)
-Émission de 1956 de France, série commémorant des personnalités scientifiques françaises.
- Georg Forster (1754-1794)
-Émission de 1979 de la République démocratique allemande, série commémorant des personnalités allemandes.
-H
- Alexander von Humboldt (1769-1859)
-Émission de 1960 de la République démocratique allemande, série commémorant le 150e anniversaire de la fondation de l'université Humboldt de Berlin. Il y figure aux côtés de son frère Wilhelm von Humboldt (1767-1835).
-Émission de 1969 de la République démocratique allemande, série commémorant des personnalités allemandes.
-Émission de 1983 de la République démocratique allemande, série commémorant le bicentenaire de Simón Bolívar (1783-1830).
-J
-Nikolaus Joseph von Jacquin (1727-1817)
-Émission de 1977 de l'Autriche, commémorant le 250e de la naissance du baron Jacquin.
-K
-Pál Kitaibel (1757-1817)
-Émission de 1992 de l'Autriche, commémorant l'anniversaire de divers scientifiques.
-L
- Carl von Linné (1707-1778)
-Émission de 1958 de la République démocratique allemande (conjointe avec un timbre sur Darwin, voir ce nom).
-M
-Gregor Mendel (1822-1884)
-Émission de 1984 de l'Autriche, commémorant le centenaire de la mort de Mendel.
-N
- Johann Friedrich Naumann (1780-1857)
-Émission de 1980 de la République démocratique allemande, série commémorant des personnalités allemandes.
- August Neilreich (1803-1871)
-Émission de 1971 de l'Autriche, commémorant le centenaire de la mort de Neilreich
-P
-Felipe Poey (1799-1891)
-Émission de 1958 de Cuba, série commémorant le naturaliste.
-Émission de 1974 de Cuba, série commémorant le 175e anniversaire de sa naissance.
-Émission de 1999 de Cuba, série commémorant le 200e anniversaire de sa naissance.
-T
- Albrecht Daniel Thaer (1752-1828)
-Émission de 1977 de la République démocratique allemande, série commémorant des personnalités allemandes.
-Institutions scientifiques
-Jardin zoologique du Château de Schönbrunn
-Émission de 1952 de l'Autriche, commémorant le bicentenaire du parc zoologique.</t>
+Émission de 1989 de la République démocratique allemande, bloc commémorant les deux Brehms.</t>
         </is>
       </c>
     </row>
@@ -588,10 +559,466 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelbert von Chamisso (1781-1838)
+Émission de 1981 de la République démocratique allemande, série commémorant des personnalités allemandes.
+ Georges Cuvier (1769-1832)
+Émission de 1969 de la France, série commémorant des personnalités françaises.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Charles Darwin (1809-1882)
+Émission de 1958 de la République démocratique allemande (conjointe avec un timbre sur Linné, voir ce nom).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean-Henri Fabre (1823-1915)
+Émission de 1956 de France, série commémorant des personnalités scientifiques françaises.
+ Georg Forster (1754-1794)
+Émission de 1979 de la République démocratique allemande, série commémorant des personnalités allemandes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alexander von Humboldt (1769-1859)
+Émission de 1960 de la République démocratique allemande, série commémorant le 150e anniversaire de la fondation de l'université Humboldt de Berlin. Il y figure aux côtés de son frère Wilhelm von Humboldt (1767-1835).
+Émission de 1969 de la République démocratique allemande, série commémorant des personnalités allemandes.
+Émission de 1983 de la République démocratique allemande, série commémorant le bicentenaire de Simón Bolívar (1783-1830).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nikolaus Joseph von Jacquin (1727-1817)
+Émission de 1977 de l'Autriche, commémorant le 250e de la naissance du baron Jacquin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pál Kitaibel (1757-1817)
+Émission de 1992 de l'Autriche, commémorant l'anniversaire de divers scientifiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Carl von Linné (1707-1778)
+Émission de 1958 de la République démocratique allemande (conjointe avec un timbre sur Darwin, voir ce nom).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Gregor Mendel (1822-1884)
+Émission de 1984 de l'Autriche, commémorant le centenaire de la mort de Mendel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Johann Friedrich Naumann (1780-1857)
+Émission de 1980 de la République démocratique allemande, série commémorant des personnalités allemandes.
+ August Neilreich (1803-1871)
+Émission de 1971 de l'Autriche, commémorant le centenaire de la mort de Neilreich</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Felipe Poey (1799-1891)
+Émission de 1958 de Cuba, série commémorant le naturaliste.
+Émission de 1974 de Cuba, série commémorant le 175e anniversaire de sa naissance.
+Émission de 1999 de Cuba, série commémorant le 200e anniversaire de sa naissance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Albrecht Daniel Thaer (1752-1828)
+Émission de 1977 de la République démocratique allemande, série commémorant des personnalités allemandes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classement par personnalité</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Institutions scientifiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jardin zoologique du Château de Schönbrunn
+Émission de 1952 de l'Autriche, commémorant le bicentenaire du parc zoologique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Naturalistes_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Classement par pays</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la philatélie   Portail de l’histoire de la zoologie et de la botanique                    </t>
         </is>
